--- a/cablagevfinal.xlsx
+++ b/cablagevfinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecom\Documents\GitHub\carnofluxe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Salle</t>
   </si>
@@ -136,6 +135,9 @@
   </si>
   <si>
     <t>Mise à terre</t>
+  </si>
+  <si>
+    <t>Liaison RouteurE-SwitchE1</t>
   </si>
 </sst>
 </file>
@@ -334,72 +336,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,13 +735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="22" t="s">
         <v>8</v>
       </c>
@@ -825,20 +827,20 @@
       <c r="C4">
         <v>57</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="31">
         <v>105.8</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="18">
         <v>2</v>
       </c>
       <c r="J4" s="2">
@@ -850,7 +852,7 @@
       <c r="L4">
         <v>68.599999999999994</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="39">
         <f>105.8+3.5</f>
         <v>109.3</v>
       </c>
@@ -865,8 +867,8 @@
       <c r="C5">
         <v>66.400000000000006</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="2">
         <v>101</v>
       </c>
@@ -876,7 +878,7 @@
       <c r="H5" s="2">
         <v>102.8</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="36">
         <v>106.9</v>
       </c>
       <c r="J5">
@@ -888,7 +890,7 @@
       <c r="L5">
         <v>40</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -900,8 +902,8 @@
       <c r="C6">
         <v>75.8</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6">
         <v>102</v>
       </c>
@@ -911,7 +913,7 @@
       <c r="H6">
         <v>63</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="36"/>
       <c r="J6">
         <v>203</v>
       </c>
@@ -921,7 +923,7 @@
       <c r="L6">
         <v>158.6</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -933,8 +935,8 @@
       <c r="C7">
         <v>85.2</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="2">
         <v>103</v>
       </c>
@@ -944,7 +946,7 @@
       <c r="H7">
         <v>343.2</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="36"/>
       <c r="J7">
         <v>204</v>
       </c>
@@ -954,7 +956,7 @@
       <c r="L7">
         <v>59.2</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -966,8 +968,8 @@
       <c r="C8">
         <v>94.6</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8">
         <v>110</v>
       </c>
@@ -977,7 +979,7 @@
       <c r="H8">
         <v>150</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="36"/>
       <c r="J8">
         <v>205</v>
       </c>
@@ -987,7 +989,7 @@
       <c r="L8">
         <v>67.599999999999994</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -999,8 +1001,8 @@
       <c r="C9">
         <v>104</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="2">
         <v>112</v>
       </c>
@@ -1010,7 +1012,7 @@
       <c r="H9">
         <v>143.19999999999999</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="36"/>
       <c r="J9">
         <v>206</v>
       </c>
@@ -1020,7 +1022,7 @@
       <c r="L9">
         <v>75.2</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1032,8 +1034,8 @@
       <c r="C10">
         <v>227.1</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10">
         <v>111</v>
       </c>
@@ -1043,7 +1045,7 @@
       <c r="H10">
         <v>47.2</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="36"/>
       <c r="J10">
         <v>207</v>
       </c>
@@ -1053,7 +1055,7 @@
       <c r="L10">
         <v>191.1</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1065,18 +1067,18 @@
       <c r="C11">
         <v>191.1</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="31">
         <v>145.5</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="26"/>
       <c r="H11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="36"/>
       <c r="J11">
         <v>208</v>
       </c>
@@ -1086,7 +1088,7 @@
       <c r="L11">
         <v>118.3</v>
       </c>
-      <c r="M11" s="20"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1098,16 +1100,16 @@
       <c r="C12">
         <v>75.2</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="26"/>
       <c r="H12">
         <v>28.8</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="19">
         <v>5</v>
       </c>
       <c r="J12">
@@ -1119,7 +1121,7 @@
       <c r="L12">
         <v>227.1</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="31">
         <v>145.5</v>
       </c>
     </row>
@@ -1133,8 +1135,8 @@
       <c r="C13">
         <v>67.599999999999994</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13">
         <v>113</v>
       </c>
@@ -1144,7 +1146,7 @@
       <c r="H13">
         <v>20.6</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="36">
         <v>114.8</v>
       </c>
       <c r="J13">
@@ -1156,7 +1158,7 @@
       <c r="L13">
         <v>104</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1168,8 +1170,8 @@
       <c r="C14">
         <v>59.2</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="2">
         <v>114</v>
       </c>
@@ -1179,7 +1181,7 @@
       <c r="H14">
         <v>18.399999999999999</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="36"/>
       <c r="J14">
         <v>211</v>
       </c>
@@ -1189,7 +1191,7 @@
       <c r="L14">
         <v>94.6</v>
       </c>
-      <c r="M14" s="20"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1201,8 +1203,8 @@
       <c r="C15">
         <v>158.6</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15">
         <v>115</v>
       </c>
@@ -1212,7 +1214,7 @@
       <c r="H15">
         <v>52.5</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="36"/>
       <c r="J15">
         <v>212</v>
       </c>
@@ -1222,7 +1224,7 @@
       <c r="L15">
         <v>85.2</v>
       </c>
-      <c r="M15" s="20"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1234,8 +1236,8 @@
       <c r="C16">
         <v>40</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2">
         <v>116</v>
       </c>
@@ -1245,7 +1247,7 @@
       <c r="H16">
         <v>145.80000000000001</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="36"/>
       <c r="J16">
         <v>213</v>
       </c>
@@ -1255,7 +1257,7 @@
       <c r="L16">
         <v>75.8</v>
       </c>
-      <c r="M16" s="20"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1267,8 +1269,8 @@
       <c r="C17">
         <v>68.599999999999994</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17">
         <v>117</v>
       </c>
@@ -1278,7 +1280,7 @@
       <c r="H17">
         <v>57</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="36"/>
       <c r="J17">
         <v>214</v>
       </c>
@@ -1288,18 +1290,18 @@
       <c r="L17">
         <v>66.400000000000006</v>
       </c>
-      <c r="M17" s="20"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="26"/>
       <c r="C18">
         <v>42.9</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="2">
         <v>118</v>
       </c>
@@ -1309,7 +1311,7 @@
       <c r="H18">
         <v>45.4</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="36"/>
       <c r="J18">
         <v>215</v>
       </c>
@@ -1319,18 +1321,18 @@
       <c r="L18">
         <v>57</v>
       </c>
-      <c r="M18" s="20"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="35"/>
       <c r="C19">
         <v>19.399999999999999</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
       <c r="F19">
         <v>119</v>
       </c>
@@ -1340,15 +1342,15 @@
       <c r="H19">
         <v>59.2</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="36"/>
+      <c r="J19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="26"/>
       <c r="L19">
         <v>19.399999999999999</v>
       </c>
-      <c r="M19" s="20"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -1367,71 +1369,71 @@
       <c r="H20">
         <v>194.4</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="18" t="s">
+      <c r="I20" s="36"/>
+      <c r="J20" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="35"/>
       <c r="L20">
         <v>42.9</v>
       </c>
-      <c r="M20" s="21"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="26"/>
       <c r="H21">
         <v>14.1</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="36"/>
+      <c r="J21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="26"/>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" s="16">
         <v>5</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="3">
         <v>62.8</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="19">
         <v>5</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="27"/>
+      <c r="J22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="30"/>
       <c r="L22" s="2">
         <v>5</v>
       </c>
@@ -1449,10 +1451,10 @@
       <c r="C23">
         <v>227.1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="31">
         <v>105.8</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="3">
@@ -1464,13 +1466,13 @@
       <c r="H23" s="2">
         <v>73.599999999999994</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="36">
         <v>159</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="26"/>
       <c r="L23">
         <v>5</v>
       </c>
@@ -1488,8 +1490,8 @@
       <c r="C24">
         <v>104</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24">
         <v>105</v>
       </c>
@@ -1499,7 +1501,7 @@
       <c r="H24" s="3">
         <v>48.4</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="36"/>
       <c r="J24">
         <v>101</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="L24">
         <v>227.1</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="31">
         <v>105.8</v>
       </c>
     </row>
@@ -1523,8 +1525,8 @@
       <c r="C25">
         <v>94.6</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="2">
         <v>106</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="H25" s="3">
         <v>21</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="36"/>
       <c r="J25">
         <v>102</v>
       </c>
@@ -1544,7 +1546,7 @@
       <c r="L25">
         <v>104</v>
       </c>
-      <c r="M25" s="20"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -1556,8 +1558,8 @@
       <c r="C26">
         <v>85.2</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
       <c r="F26">
         <v>107</v>
       </c>
@@ -1567,7 +1569,7 @@
       <c r="H26" s="3">
         <v>13</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="36"/>
       <c r="J26">
         <v>103</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="L26">
         <v>94.6</v>
       </c>
-      <c r="M26" s="20"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -1589,8 +1591,8 @@
       <c r="C27">
         <v>75.8</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="2">
         <v>108</v>
       </c>
@@ -1600,7 +1602,7 @@
       <c r="H27" s="3">
         <v>36.4</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="36"/>
       <c r="J27">
         <v>104</v>
       </c>
@@ -1610,7 +1612,7 @@
       <c r="L27">
         <v>85.2</v>
       </c>
-      <c r="M27" s="20"/>
+      <c r="M27" s="31"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -1622,8 +1624,8 @@
       <c r="C28">
         <v>66.400000000000006</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28">
         <v>109</v>
       </c>
@@ -1633,7 +1635,7 @@
       <c r="H28" s="3">
         <v>40.799999999999997</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="36"/>
       <c r="J28">
         <v>105</v>
       </c>
@@ -1643,7 +1645,7 @@
       <c r="L28">
         <v>75.8</v>
       </c>
-      <c r="M28" s="20"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -1655,8 +1657,8 @@
       <c r="C29">
         <v>57</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="9">
         <v>109</v>
       </c>
@@ -1666,7 +1668,7 @@
       <c r="H29" s="9">
         <v>149.6</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="36"/>
       <c r="J29">
         <v>106</v>
       </c>
@@ -1676,7 +1678,7 @@
       <c r="L29">
         <v>66.400000000000006</v>
       </c>
-      <c r="M29" s="20"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -1688,10 +1690,10 @@
       <c r="C30">
         <v>68.599999999999994</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="31">
         <v>130.35</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F30">
@@ -1703,7 +1705,7 @@
       <c r="H30" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="36"/>
       <c r="J30">
         <v>107</v>
       </c>
@@ -1713,7 +1715,7 @@
       <c r="L30">
         <v>57</v>
       </c>
-      <c r="M30" s="20"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -1725,8 +1727,8 @@
       <c r="C31">
         <v>40</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31">
         <v>122</v>
       </c>
@@ -1736,7 +1738,7 @@
       <c r="H31" s="3">
         <v>101.8</v>
       </c>
-      <c r="I31" s="30"/>
+      <c r="I31" s="36"/>
       <c r="J31">
         <v>109</v>
       </c>
@@ -1746,7 +1748,7 @@
       <c r="L31">
         <v>68.599999999999994</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="31">
         <v>130.35</v>
       </c>
     </row>
@@ -1760,16 +1762,16 @@
       <c r="C32">
         <v>158.6</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="17" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="3">
         <v>9</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="36"/>
       <c r="J32">
         <v>110</v>
       </c>
@@ -1779,7 +1781,7 @@
       <c r="L32">
         <v>40</v>
       </c>
-      <c r="M32" s="20"/>
+      <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -1791,16 +1793,16 @@
       <c r="C33">
         <v>59.2</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="3">
         <v>32.9</v>
       </c>
-      <c r="I33" s="32"/>
+      <c r="I33" s="37"/>
       <c r="J33">
         <v>111</v>
       </c>
@@ -1810,7 +1812,7 @@
       <c r="L33">
         <v>158.6</v>
       </c>
-      <c r="M33" s="20"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -1822,14 +1824,14 @@
       <c r="C34">
         <v>67.599999999999994</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
       <c r="J34">
         <v>112</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="L34">
         <v>59.2</v>
       </c>
-      <c r="M34" s="20"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
@@ -1851,16 +1853,16 @@
       <c r="C35">
         <v>75.2</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="27" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="12">
         <v>5</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="17">
         <v>5</v>
       </c>
       <c r="J35">
@@ -1872,7 +1874,7 @@
       <c r="L35">
         <v>67.599999999999994</v>
       </c>
-      <c r="M35" s="20"/>
+      <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1884,8 +1886,8 @@
       <c r="C36">
         <v>90.2</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="15">
         <v>203</v>
       </c>
@@ -1895,7 +1897,7 @@
       <c r="H36" s="12">
         <v>87.8</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="31">
         <v>148.6</v>
       </c>
       <c r="J36">
@@ -1907,7 +1909,7 @@
       <c r="L36">
         <v>75.2</v>
       </c>
-      <c r="M36" s="20"/>
+      <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -1919,8 +1921,8 @@
       <c r="C37">
         <v>95.2</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37">
         <v>204</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="H37" s="12">
         <v>176</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="31"/>
       <c r="J37">
         <v>115</v>
       </c>
@@ -1940,18 +1942,18 @@
       <c r="L37">
         <v>90.2</v>
       </c>
-      <c r="M37" s="20"/>
+      <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="26"/>
       <c r="C38">
         <v>42.9</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38">
         <v>205</v>
       </c>
@@ -1961,7 +1963,7 @@
       <c r="H38" s="12">
         <v>54.4</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="31"/>
       <c r="J38">
         <v>116</v>
       </c>
@@ -1971,18 +1973,18 @@
       <c r="L38">
         <v>95.2</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="21"/>
       <c r="C39">
         <v>19.399999999999999</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39">
         <v>206</v>
       </c>
@@ -1992,26 +1994,26 @@
       <c r="H39" s="12">
         <v>45.2</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="17" t="s">
+      <c r="I39" s="31"/>
+      <c r="J39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="17"/>
+      <c r="K39" s="26"/>
       <c r="L39" s="12">
         <v>19.399999999999999</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="37">
+      <c r="B40" s="21"/>
+      <c r="C40" s="20">
         <v>20</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
       <c r="F40">
         <v>207</v>
       </c>
@@ -2021,24 +2023,24 @@
       <c r="H40" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="19" t="s">
+      <c r="I40" s="31"/>
+      <c r="J40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="19"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="12">
         <v>42.9</v>
       </c>
-      <c r="M40" s="36"/>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
       <c r="F41">
         <v>208</v>
       </c>
@@ -2048,15 +2050,15 @@
       <c r="H41" s="12">
         <v>16.600000000000001</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="19" t="s">
+      <c r="I41" s="31"/>
+      <c r="J41" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="19"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="12">
         <v>20</v>
       </c>
-      <c r="M41" s="37"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
@@ -2083,13 +2085,13 @@
       <c r="H42" s="3">
         <v>13</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="33" t="s">
+      <c r="I42" s="31"/>
+      <c r="J42" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="34"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -2119,7 +2121,7 @@
       <c r="H43" s="3">
         <v>204</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="10" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2145,7 @@
       <c r="H44" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="I44" s="20"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="4">
         <v>30</v>
       </c>
@@ -2170,7 +2172,7 @@
       <c r="H45" s="3">
         <v>40.799999999999997</v>
       </c>
-      <c r="I45" s="20"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F46">
@@ -2182,7 +2184,7 @@
       <c r="H46" s="3">
         <v>36.4</v>
       </c>
-      <c r="I46" s="20"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F47">
@@ -2194,43 +2196,43 @@
       <c r="H47" s="3">
         <v>176.4</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="26"/>
       <c r="H48">
         <v>42.1</v>
       </c>
-      <c r="I48" s="20"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="19"/>
+      <c r="G49" s="21"/>
       <c r="H49">
         <v>30</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="21"/>
       <c r="H50">
         <v>5</v>
       </c>
-      <c r="I50" s="20"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="26"/>
       <c r="H51">
         <v>5</v>
       </c>
@@ -2248,7 +2250,7 @@
       <c r="H52">
         <v>67</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="31">
         <v>101.6</v>
       </c>
     </row>
@@ -2262,7 +2264,7 @@
       <c r="H53">
         <v>194.8</v>
       </c>
-      <c r="I53" s="20"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F54">
@@ -2274,7 +2276,7 @@
       <c r="H54">
         <v>38.4</v>
       </c>
-      <c r="I54" s="20"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F55">
@@ -2286,7 +2288,7 @@
       <c r="H55">
         <v>20.6</v>
       </c>
-      <c r="I55" s="20"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F56">
@@ -2298,7 +2300,7 @@
       <c r="H56">
         <v>18.399999999999999</v>
       </c>
-      <c r="I56" s="20"/>
+      <c r="I56" s="31"/>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F57">
@@ -2310,7 +2312,7 @@
       <c r="H57">
         <v>52.5</v>
       </c>
-      <c r="I57" s="20"/>
+      <c r="I57" s="31"/>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F58">
@@ -2322,7 +2324,7 @@
       <c r="H58">
         <v>131.19999999999999</v>
       </c>
-      <c r="I58" s="20"/>
+      <c r="I58" s="31"/>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F59">
@@ -2334,35 +2336,35 @@
       <c r="H59">
         <v>45.4</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="26"/>
       <c r="H60">
         <v>4.7</v>
       </c>
-      <c r="I60" s="36"/>
+      <c r="I60" s="33"/>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="H61" s="37">
+      <c r="G61" s="21"/>
+      <c r="H61" s="20">
         <v>132</v>
       </c>
-      <c r="I61" s="37"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F63" s="5" t="s">
@@ -2449,6 +2451,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E30:E39"/>
+    <mergeCell ref="D30:D39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="I23:I33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="E4:E19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I5:I11"/>
+    <mergeCell ref="I13:I21"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I36:I50"/>
+    <mergeCell ref="I52:I60"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="A68:E68"/>
@@ -2465,48 +2509,6 @@
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F62:I62"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I36:I50"/>
-    <mergeCell ref="I52:I60"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="I23:I33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="E4:E19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I5:I11"/>
-    <mergeCell ref="I13:I21"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E39"/>
-    <mergeCell ref="D30:D39"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/cablagevfinal.xlsx
+++ b/cablagevfinal.xlsx
@@ -181,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,15 +202,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -298,15 +289,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,92 +299,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,1664 +712,1664 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>202</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
         <v>57</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="18">
         <v>105.8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="G4" s="27"/>
+      <c r="H4" s="28">
+        <v>2</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20">
         <v>201</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="17">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17">
         <v>68.599999999999994</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="18">
         <f>105.8+3.5</f>
         <v>109.3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="17">
         <v>203</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="2">
+      <c r="D5" s="18"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="20">
         <v>101</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="20">
+        <v>4</v>
+      </c>
+      <c r="H5" s="20">
         <v>102.8</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="30">
         <v>106.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="17">
         <v>202</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="17">
+        <v>2</v>
+      </c>
+      <c r="L5" s="17">
         <v>40</v>
       </c>
-      <c r="M5" s="31"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="17">
         <v>204</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17">
         <v>75.8</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6">
+      <c r="D6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="17">
         <v>102</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="17">
+        <v>2</v>
+      </c>
+      <c r="H6" s="17">
         <v>63</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6">
+      <c r="I6" s="30"/>
+      <c r="J6" s="17">
         <v>203</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="17">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="17">
         <v>158.6</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="17">
         <v>205</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
         <v>85.2</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="2">
+      <c r="D7" s="18"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20">
         <v>103</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="17">
+        <v>4</v>
+      </c>
+      <c r="H7" s="17">
         <v>343.2</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7">
+      <c r="I7" s="30"/>
+      <c r="J7" s="17">
         <v>204</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="17">
+        <v>2</v>
+      </c>
+      <c r="L7" s="17">
         <v>59.2</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="17">
         <v>206</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
         <v>94.6</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8">
+      <c r="D8" s="18"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="17">
         <v>110</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="17">
+        <v>4</v>
+      </c>
+      <c r="H8" s="17">
         <v>150</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8">
+      <c r="I8" s="30"/>
+      <c r="J8" s="17">
         <v>205</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="17">
+        <v>2</v>
+      </c>
+      <c r="L8" s="17">
         <v>67.599999999999994</v>
       </c>
-      <c r="M8" s="31"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="17">
         <v>207</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17">
         <v>104</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="2">
+      <c r="D9" s="18"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20">
         <v>112</v>
       </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="17">
+        <v>4</v>
+      </c>
+      <c r="H9" s="17">
         <v>143.19999999999999</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9">
+      <c r="I9" s="30"/>
+      <c r="J9" s="17">
         <v>206</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+      <c r="L9" s="17">
         <v>75.2</v>
       </c>
-      <c r="M9" s="31"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="17">
         <v>208</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="17">
         <v>227.1</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10">
+      <c r="D10" s="18"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
         <v>111</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="17">
+        <v>2</v>
+      </c>
+      <c r="H10" s="17">
         <v>47.2</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10">
+      <c r="I10" s="30"/>
+      <c r="J10" s="17">
         <v>207</v>
       </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="17">
+        <v>4</v>
+      </c>
+      <c r="L10" s="17">
         <v>191.1</v>
       </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="17">
         <v>209</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17">
         <v>191.1</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="18">
         <v>145.5</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11">
+      <c r="G11" s="19"/>
+      <c r="H11" s="17">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11">
+      <c r="I11" s="30"/>
+      <c r="J11" s="17">
         <v>208</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="17">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17">
         <v>118.3</v>
       </c>
-      <c r="M11" s="31"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>210</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17">
         <v>75.2</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12">
+      <c r="G12" s="19"/>
+      <c r="H12" s="17">
         <v>28.8</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="29">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="17">
         <v>209</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="17">
+        <v>4</v>
+      </c>
+      <c r="L12" s="17">
         <v>227.1</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="18">
         <v>145.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>211</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
         <v>67.599999999999994</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13">
+      <c r="D13" s="18"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
         <v>113</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
         <v>20.6</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="30">
         <v>114.8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="17">
         <v>210</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17">
         <v>104</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="17">
         <v>212</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
         <v>59.2</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="2">
+      <c r="D14" s="18"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20">
         <v>114</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="17">
         <v>18.399999999999999</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14">
+      <c r="I14" s="30"/>
+      <c r="J14" s="17">
         <v>211</v>
       </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="17">
+        <v>2</v>
+      </c>
+      <c r="L14" s="17">
         <v>94.6</v>
       </c>
-      <c r="M14" s="31"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="17">
         <v>213</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="17">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="17">
         <v>158.6</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15">
+      <c r="D15" s="18"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
         <v>115</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="17">
         <v>52.5</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15">
+      <c r="I15" s="30"/>
+      <c r="J15" s="17">
         <v>212</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
+      <c r="K15" s="17">
+        <v>2</v>
+      </c>
+      <c r="L15" s="17">
         <v>85.2</v>
       </c>
-      <c r="M15" s="31"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="17">
         <v>214</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17">
         <v>40</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="2">
+      <c r="D16" s="18"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20">
         <v>116</v>
       </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="17">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17">
         <v>145.80000000000001</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16">
+      <c r="I16" s="30"/>
+      <c r="J16" s="17">
         <v>213</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="17">
+        <v>2</v>
+      </c>
+      <c r="L16" s="17">
         <v>75.8</v>
       </c>
-      <c r="M16" s="31"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="17">
         <v>215</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="17">
         <v>68.599999999999994</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17">
+      <c r="D17" s="18"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
         <v>117</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17">
         <v>57</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17">
+      <c r="I17" s="30"/>
+      <c r="J17" s="17">
         <v>214</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="M17" s="31"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18">
+      <c r="B18" s="19"/>
+      <c r="C18" s="17">
         <v>42.9</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="2">
+      <c r="D18" s="18"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20">
         <v>118</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+      <c r="H18" s="17">
         <v>45.4</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18">
+      <c r="I18" s="30"/>
+      <c r="J18" s="17">
         <v>215</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="17">
+        <v>2</v>
+      </c>
+      <c r="L18" s="17">
         <v>57</v>
       </c>
-      <c r="M18" s="31"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19">
+      <c r="B19" s="19"/>
+      <c r="C19" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="31"/>
-      <c r="F19">
+      <c r="D19" s="18"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
         <v>119</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="17">
         <v>59.2</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="26" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19">
+      <c r="K19" s="19"/>
+      <c r="L19" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="M19" s="31"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="2">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="20">
         <v>121</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="17">
+        <v>4</v>
+      </c>
+      <c r="H20" s="17">
         <v>194.4</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="35" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20">
+      <c r="K20" s="19"/>
+      <c r="L20" s="17">
         <v>42.9</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20">
         <v>5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="21">
         <v>5</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21">
+      <c r="G21" s="19"/>
+      <c r="H21" s="17">
         <v>14.1</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22">
+      <c r="B22" s="19"/>
+      <c r="C22" s="17">
         <v>5</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="22">
         <v>5</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="3">
+      <c r="G22" s="19"/>
+      <c r="H22" s="31">
         <v>62.8</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="29">
         <v>5</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="2">
+      <c r="K22" s="19"/>
+      <c r="L22" s="20">
         <v>5</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="17">
         <v>101</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="17">
+        <v>4</v>
+      </c>
+      <c r="C23" s="17">
         <v>227.1</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="18">
         <v>105.8</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="31">
         <v>104</v>
       </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="31">
+        <v>2</v>
+      </c>
+      <c r="H23" s="20">
         <v>73.599999999999994</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="30">
         <v>159</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23">
+      <c r="K23" s="19"/>
+      <c r="L23" s="17">
         <v>5</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="17">
         <v>102</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="17">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17">
         <v>104</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24">
+      <c r="D24" s="18"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
         <v>105</v>
       </c>
-      <c r="G24" s="3">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="31">
+        <v>2</v>
+      </c>
+      <c r="H24" s="31">
         <v>48.4</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24">
+      <c r="I24" s="30"/>
+      <c r="J24" s="17">
         <v>101</v>
       </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="17">
+        <v>4</v>
+      </c>
+      <c r="L24" s="17">
         <v>227.1</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="18">
         <v>105.8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="17">
         <v>103</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="17">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17">
         <v>94.6</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="2">
+      <c r="D25" s="18"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20">
         <v>106</v>
       </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="31">
+        <v>2</v>
+      </c>
+      <c r="H25" s="31">
         <v>21</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25">
+      <c r="I25" s="30"/>
+      <c r="J25" s="17">
         <v>102</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="17">
+        <v>2</v>
+      </c>
+      <c r="L25" s="17">
         <v>104</v>
       </c>
-      <c r="M25" s="31"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="17">
         <v>104</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17">
         <v>85.2</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26">
+      <c r="D26" s="18"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="17">
         <v>107</v>
       </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="31">
+        <v>2</v>
+      </c>
+      <c r="H26" s="31">
         <v>13</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26">
+      <c r="I26" s="30"/>
+      <c r="J26" s="17">
         <v>103</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="17">
+        <v>2</v>
+      </c>
+      <c r="L26" s="17">
         <v>94.6</v>
       </c>
-      <c r="M26" s="31"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="17">
         <v>105</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="17">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17">
         <v>75.8</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="2">
+      <c r="D27" s="18"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20">
         <v>108</v>
       </c>
-      <c r="G27" s="3">
-        <v>2</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="31">
+        <v>2</v>
+      </c>
+      <c r="H27" s="31">
         <v>36.4</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27">
+      <c r="I27" s="30"/>
+      <c r="J27" s="17">
         <v>104</v>
       </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="17">
+        <v>2</v>
+      </c>
+      <c r="L27" s="17">
         <v>85.2</v>
       </c>
-      <c r="M27" s="31"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="17">
         <v>106</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="17">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28">
+      <c r="D28" s="18"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
         <v>109</v>
       </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="31">
+        <v>2</v>
+      </c>
+      <c r="H28" s="31">
         <v>40.799999999999997</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28">
+      <c r="I28" s="30"/>
+      <c r="J28" s="17">
         <v>105</v>
       </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="17">
+        <v>2</v>
+      </c>
+      <c r="L28" s="17">
         <v>75.8</v>
       </c>
-      <c r="M28" s="31"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="17">
         <v>107</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="17">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
         <v>57</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="9">
+      <c r="D29" s="18"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="32">
         <v>109</v>
       </c>
-      <c r="G29" s="9">
-        <v>4</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="G29" s="32">
+        <v>4</v>
+      </c>
+      <c r="H29" s="32">
         <v>149.6</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29">
+      <c r="I29" s="30"/>
+      <c r="J29" s="17">
         <v>106</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="17">
+        <v>2</v>
+      </c>
+      <c r="L29" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="M29" s="31"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="17">
         <v>109</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="17">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17">
         <v>68.599999999999994</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="18">
         <v>130.35</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="17">
         <v>120</v>
       </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="31">
+        <v>2</v>
+      </c>
+      <c r="H30" s="31">
         <v>79.400000000000006</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30">
+      <c r="I30" s="30"/>
+      <c r="J30" s="17">
         <v>107</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
+      <c r="K30" s="17">
+        <v>2</v>
+      </c>
+      <c r="L30" s="17">
         <v>57</v>
       </c>
-      <c r="M30" s="31"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="17">
         <v>110</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="17">
+        <v>2</v>
+      </c>
+      <c r="C31" s="17">
         <v>40</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31">
+      <c r="D31" s="18"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
         <v>122</v>
       </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="31">
         <v>101.8</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="J31">
+      <c r="I31" s="30"/>
+      <c r="J31" s="17">
         <v>109</v>
       </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="17">
+        <v>4</v>
+      </c>
+      <c r="L31" s="17">
         <v>68.599999999999994</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="18">
         <v>130.35</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="17">
         <v>111</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="17">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="17">
         <v>158.6</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="3">
+      <c r="G32" s="19"/>
+      <c r="H32" s="31">
         <v>9</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="J32">
+      <c r="I32" s="30"/>
+      <c r="J32" s="17">
         <v>110</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
+      <c r="K32" s="17">
+        <v>2</v>
+      </c>
+      <c r="L32" s="17">
         <v>40</v>
       </c>
-      <c r="M32" s="31"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="17">
         <v>112</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="17">
         <v>59.2</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="35" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="3">
+      <c r="G33" s="19"/>
+      <c r="H33" s="31">
         <v>32.9</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33">
+      <c r="I33" s="30"/>
+      <c r="J33" s="17">
         <v>111</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="17">
         <v>6</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="17">
         <v>158.6</v>
       </c>
-      <c r="M33" s="31"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="17">
         <v>113</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="17">
+        <v>2</v>
+      </c>
+      <c r="C34" s="17">
         <v>67.599999999999994</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="27" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="17">
         <v>112</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
+      <c r="K34" s="17">
+        <v>2</v>
+      </c>
+      <c r="L34" s="17">
         <v>59.2</v>
       </c>
-      <c r="M34" s="31"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="17">
         <v>114</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="17">
+        <v>2</v>
+      </c>
+      <c r="C35" s="17">
         <v>75.2</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="12">
+      <c r="G35" s="19"/>
+      <c r="H35" s="33">
         <v>5</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="34">
         <v>5</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="17">
         <v>113</v>
       </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="17">
+        <v>2</v>
+      </c>
+      <c r="L35" s="17">
         <v>67.599999999999994</v>
       </c>
-      <c r="M35" s="31"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="17">
         <v>115</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="17">
+        <v>2</v>
+      </c>
+      <c r="C36" s="17">
         <v>90.2</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="15">
+      <c r="D36" s="18"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="31">
         <v>203</v>
       </c>
-      <c r="G36" s="12">
-        <v>2</v>
-      </c>
-      <c r="H36" s="12">
+      <c r="G36" s="33">
+        <v>2</v>
+      </c>
+      <c r="H36" s="33">
         <v>87.8</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="18">
         <v>148.6</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="17">
         <v>114</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
+      <c r="K36" s="17">
+        <v>2</v>
+      </c>
+      <c r="L36" s="17">
         <v>75.2</v>
       </c>
-      <c r="M36" s="31"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="17">
         <v>116</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="17">
+        <v>2</v>
+      </c>
+      <c r="C37" s="17">
         <v>95.2</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37">
+      <c r="D37" s="18"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
         <v>204</v>
       </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37" s="12">
+      <c r="G37" s="17">
+        <v>4</v>
+      </c>
+      <c r="H37" s="33">
         <v>176</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37">
+      <c r="I37" s="18"/>
+      <c r="J37" s="17">
         <v>115</v>
       </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="17">
+        <v>2</v>
+      </c>
+      <c r="L37" s="17">
         <v>90.2</v>
       </c>
-      <c r="M37" s="31"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38">
+      <c r="B38" s="19"/>
+      <c r="C38" s="17">
         <v>42.9</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38">
+      <c r="D38" s="18"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
         <v>205</v>
       </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" s="12">
+      <c r="G38" s="17">
+        <v>2</v>
+      </c>
+      <c r="H38" s="33">
         <v>54.4</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38">
+      <c r="I38" s="18"/>
+      <c r="J38" s="17">
         <v>116</v>
       </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
+      <c r="K38" s="17">
+        <v>2</v>
+      </c>
+      <c r="L38" s="17">
         <v>95.2</v>
       </c>
-      <c r="M38" s="31"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39">
+      <c r="B39" s="19"/>
+      <c r="C39" s="17">
         <v>19.399999999999999</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39">
+      <c r="D39" s="18"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="17">
         <v>206</v>
       </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" s="12">
+      <c r="G39" s="17">
+        <v>2</v>
+      </c>
+      <c r="H39" s="33">
         <v>45.2</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="26" t="s">
+      <c r="I39" s="18"/>
+      <c r="J39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="12">
+      <c r="K39" s="19"/>
+      <c r="L39" s="33">
         <v>19.399999999999999</v>
       </c>
-      <c r="M39" s="31"/>
+      <c r="M39" s="18"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="20">
+      <c r="B40" s="19"/>
+      <c r="C40" s="17">
         <v>20</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40">
+      <c r="D40" s="17"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="17">
         <v>207</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="G40" s="17">
+        <v>2</v>
+      </c>
+      <c r="H40" s="33">
         <v>32.799999999999997</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="21" t="s">
+      <c r="I40" s="18"/>
+      <c r="J40" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="12">
+      <c r="K40" s="19"/>
+      <c r="L40" s="33">
         <v>42.9</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
-      <c r="F41">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="17">
         <v>208</v>
       </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" s="12">
+      <c r="G41" s="17">
+        <v>2</v>
+      </c>
+      <c r="H41" s="33">
         <v>16.600000000000001</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="21" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="12">
+      <c r="K41" s="19"/>
+      <c r="L41" s="33">
         <v>20</v>
       </c>
-      <c r="M41" s="20"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="17">
         <v>209</v>
       </c>
-      <c r="G42" s="3">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="31">
+        <v>2</v>
+      </c>
+      <c r="H42" s="31">
         <v>13</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="23" t="s">
+      <c r="I42" s="18"/>
+      <c r="J42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>29</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="1">
         <f>SUM(B23:B37,B4:B17)</f>
         <v>76</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="6">
         <f>SUM(C21:C39,C4:C19)</f>
         <v>2869.7</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
         <f>SUM(D21:D39,D4:D19)</f>
         <v>497.45</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="17">
         <v>212</v>
       </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="17">
+        <v>4</v>
+      </c>
+      <c r="H43" s="31">
         <v>204</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="18"/>
+      <c r="J43" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="10" t="s">
+      <c r="K43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F44">
+      <c r="F44" s="17">
         <v>213</v>
       </c>
-      <c r="G44" s="3">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="31">
+        <v>2</v>
+      </c>
+      <c r="H44" s="31">
         <v>79.400000000000006</v>
       </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="4">
+      <c r="I44" s="18"/>
+      <c r="J44" s="26">
         <v>30</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="1">
         <f>SUM(K24:K38,K4:K18)</f>
         <v>78</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="1">
         <f>SUM(L22:L40,L4:L20)</f>
         <v>2988.0000000000005</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="1">
         <f>SUM(M22:M40,M4:M20)</f>
         <v>500.95</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F45">
+      <c r="F45" s="17">
         <v>214</v>
       </c>
-      <c r="G45" s="3">
-        <v>2</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="31">
+        <v>2</v>
+      </c>
+      <c r="H45" s="31">
         <v>40.799999999999997</v>
       </c>
-      <c r="I45" s="31"/>
+      <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F46">
+      <c r="F46" s="17">
         <v>215</v>
       </c>
-      <c r="G46" s="3">
-        <v>2</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="31">
+        <v>2</v>
+      </c>
+      <c r="H46" s="31">
         <v>36.4</v>
       </c>
-      <c r="I46" s="31"/>
+      <c r="I46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F47">
+      <c r="F47" s="17">
         <v>222</v>
       </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="17">
+        <v>4</v>
+      </c>
+      <c r="H47" s="31">
         <v>176.4</v>
       </c>
-      <c r="I47" s="31"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48">
+      <c r="G48" s="19"/>
+      <c r="H48" s="17">
         <v>42.1</v>
       </c>
-      <c r="I48" s="31"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49">
+      <c r="G49" s="19"/>
+      <c r="H49" s="17">
         <v>30</v>
       </c>
-      <c r="I49" s="31"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50">
+      <c r="G50" s="19"/>
+      <c r="H50" s="17">
         <v>5</v>
       </c>
-      <c r="I50" s="31"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="26"/>
-      <c r="H51">
+      <c r="G51" s="19"/>
+      <c r="H51" s="17">
         <v>5</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F52">
+      <c r="F52" s="17">
         <v>201</v>
       </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
+      <c r="G52" s="17">
+        <v>2</v>
+      </c>
+      <c r="H52" s="17">
         <v>67</v>
       </c>
-      <c r="I52" s="31">
+      <c r="I52" s="18">
         <v>101.6</v>
       </c>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F53">
+      <c r="F53" s="17">
         <v>202</v>
       </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
+      <c r="G53" s="17">
+        <v>4</v>
+      </c>
+      <c r="H53" s="17">
         <v>194.8</v>
       </c>
-      <c r="I53" s="31"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F54">
+      <c r="F54" s="17">
         <v>216</v>
       </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
+      <c r="G54" s="17">
+        <v>2</v>
+      </c>
+      <c r="H54" s="17">
         <v>38.4</v>
       </c>
-      <c r="I54" s="31"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F55">
+      <c r="F55" s="17">
         <v>217</v>
       </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
+      <c r="G55" s="17">
+        <v>2</v>
+      </c>
+      <c r="H55" s="17">
         <v>20.6</v>
       </c>
-      <c r="I55" s="31"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F56">
+      <c r="F56" s="17">
         <v>218</v>
       </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
+      <c r="G56" s="17">
+        <v>2</v>
+      </c>
+      <c r="H56" s="17">
         <v>18.399999999999999</v>
       </c>
-      <c r="I56" s="31"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F57">
+      <c r="F57" s="17">
         <v>219</v>
       </c>
-      <c r="G57">
-        <v>4</v>
-      </c>
-      <c r="H57">
+      <c r="G57" s="17">
+        <v>4</v>
+      </c>
+      <c r="H57" s="17">
         <v>52.5</v>
       </c>
-      <c r="I57" s="31"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F58">
+      <c r="F58" s="17">
         <v>220</v>
       </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="H58">
+      <c r="G58" s="17">
+        <v>4</v>
+      </c>
+      <c r="H58" s="17">
         <v>131.19999999999999</v>
       </c>
-      <c r="I58" s="31"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F59">
+      <c r="F59" s="17">
         <v>221</v>
       </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
+      <c r="G59" s="17">
+        <v>2</v>
+      </c>
+      <c r="H59" s="17">
         <v>45.4</v>
       </c>
-      <c r="I59" s="31"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="26"/>
-      <c r="H60">
+      <c r="G60" s="19"/>
+      <c r="H60" s="17">
         <v>4.7</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="20">
+      <c r="G61" s="19"/>
+      <c r="H61" s="17">
         <v>132</v>
       </c>
-      <c r="I61" s="20"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="5" t="s">
+      <c r="G63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F64" s="4">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="1">
         <f>SUM(G24:G36,G6:G20)</f>
         <v>57</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="1">
         <f>SUM(H24:H36,H6:H20)</f>
         <v>2003.1000000000001</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="1">
         <f>SUM(I35:I60,I4:I33)</f>
         <v>652.90000000000009</v>
       </c>
@@ -2403,49 +2380,49 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <f>SUM(B4:B17,B23:B37,G5:G10,G13:G20,G23:G31,G36:G47,G52:G59,K4:K18,K24:K38)</f>
         <v>267</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="1">
         <f>SUM(C4:C19,C23:C39,H5:H11,H13:H21,H23:H33,H36:H50,H52:H60,L4:L20,L24:L40)</f>
         <v>9522.6000000000022</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <f>SUM(C21:C22,H4,H12,H22,H35,H51,L22,L23)</f>
         <v>123.6</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="1">
         <f>SUM(D43,I64,M44)</f>
         <v>1651.3000000000002</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="1">
         <v>172</v>
       </c>
     </row>
@@ -2456,19 +2433,19 @@
     <mergeCell ref="D23:D29"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E30:E39"/>
+    <mergeCell ref="D30:D39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="E30:E39"/>
-    <mergeCell ref="D30:D39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F22:G22"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="I23:I33"/>
@@ -2483,9 +2460,8 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I5:I11"/>
     <mergeCell ref="I13:I21"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I36:I50"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="I52:I60"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F60:G60"/>
@@ -2493,6 +2469,7 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I36:I50"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="A68:E68"/>
@@ -2511,6 +2488,6 @@
     <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>